--- a/tables/scotland_excess_deaths.xlsx
+++ b/tables/scotland_excess_deaths.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
-    <sheet name="All combined" sheetId="7" r:id="rId1"/>
+    <sheet name="all_combined" sheetId="7" r:id="rId1"/>
     <sheet name="period_Scotland_less_rUK" sheetId="1" r:id="rId2"/>
     <sheet name="period_Scotland_less_rWE" sheetId="2" r:id="rId3"/>
     <sheet name="period_UK_less_rWE" sheetId="3" r:id="rId4"/>
@@ -105,6 +105,9 @@
     <t>1970s</t>
   </si>
   <si>
+    <t>Cumulative excess deaths per 100 000 by age x</t>
+  </si>
+  <si>
     <t>Scotland - rUK</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
   </si>
   <si>
     <t>Cohort-based Excess mortality per 100 000</t>
-  </si>
-  <si>
-    <t>Cumulative excess deaths per 100 000 by age x</t>
   </si>
 </sst>
 </file>
@@ -136,7 +136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <i/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -145,6 +144,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -467,1257 +467,1250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="12" width="6.21875" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="23" width="5.88671875" customWidth="1"/>
-    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>641</v>
+      </c>
+      <c r="C3">
+        <v>728</v>
+      </c>
+      <c r="D3">
+        <v>774</v>
+      </c>
+      <c r="E3">
+        <v>857</v>
+      </c>
+      <c r="F3">
+        <v>1075</v>
+      </c>
+      <c r="G3">
+        <v>1474</v>
+      </c>
+      <c r="H3">
+        <v>2211</v>
+      </c>
+      <c r="I3">
+        <v>3713</v>
+      </c>
+      <c r="J3">
+        <v>5200</v>
+      </c>
+      <c r="K3">
+        <v>4482</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3">
+        <v>2092</v>
+      </c>
+      <c r="O3">
+        <v>2676</v>
+      </c>
+      <c r="P3">
+        <v>2744</v>
+      </c>
+      <c r="Q3">
+        <v>2900</v>
+      </c>
+      <c r="R3">
+        <v>2988</v>
+      </c>
+      <c r="S3">
+        <v>3208</v>
+      </c>
+      <c r="T3">
+        <v>3845</v>
+      </c>
+      <c r="U3">
+        <v>5078</v>
+      </c>
+      <c r="V3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>345</v>
+      </c>
+      <c r="C4">
+        <v>390</v>
+      </c>
+      <c r="D4">
+        <v>416</v>
+      </c>
+      <c r="E4">
+        <v>429</v>
+      </c>
+      <c r="F4">
+        <v>525</v>
+      </c>
+      <c r="G4">
+        <v>812</v>
+      </c>
+      <c r="H4">
+        <v>1545</v>
+      </c>
+      <c r="I4">
+        <v>3086</v>
+      </c>
+      <c r="J4">
+        <v>4852</v>
+      </c>
+      <c r="K4">
+        <v>4652</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>1518</v>
+      </c>
+      <c r="O4">
+        <v>1729</v>
+      </c>
+      <c r="P4">
+        <v>1792</v>
+      </c>
+      <c r="Q4">
+        <v>1799</v>
+      </c>
+      <c r="R4">
+        <v>1889</v>
+      </c>
+      <c r="S4">
+        <v>2142</v>
+      </c>
+      <c r="T4">
+        <v>2697</v>
+      </c>
+      <c r="U4">
+        <v>3946</v>
+      </c>
+      <c r="V4">
+        <v>7318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>131</v>
+      </c>
+      <c r="D5">
+        <v>145</v>
+      </c>
+      <c r="E5">
+        <v>160</v>
+      </c>
+      <c r="F5">
+        <v>273</v>
+      </c>
+      <c r="G5">
+        <v>594</v>
+      </c>
+      <c r="H5">
+        <v>1406</v>
+      </c>
+      <c r="I5">
+        <v>3043</v>
+      </c>
+      <c r="J5">
+        <v>4959</v>
+      </c>
+      <c r="K5">
+        <v>4577</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5">
+        <v>613</v>
+      </c>
+      <c r="O5">
+        <v>676</v>
+      </c>
+      <c r="P5">
+        <v>692</v>
+      </c>
+      <c r="Q5">
+        <v>712</v>
+      </c>
+      <c r="R5">
+        <v>820</v>
+      </c>
+      <c r="S5">
+        <v>1003</v>
+      </c>
+      <c r="T5">
+        <v>1577</v>
+      </c>
+      <c r="U5">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>-23</v>
+      </c>
+      <c r="C6">
+        <v>-20</v>
+      </c>
+      <c r="D6">
+        <v>-11</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>144</v>
+      </c>
+      <c r="G6">
+        <v>389</v>
+      </c>
+      <c r="H6">
+        <v>1096</v>
+      </c>
+      <c r="I6">
+        <v>2846</v>
+      </c>
+      <c r="J6">
+        <v>5335</v>
+      </c>
+      <c r="K6">
+        <v>5903</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>345</v>
+      </c>
+      <c r="O6">
+        <v>385</v>
+      </c>
+      <c r="P6">
+        <v>414</v>
+      </c>
+      <c r="Q6">
+        <v>444</v>
+      </c>
+      <c r="R6">
+        <v>597</v>
+      </c>
+      <c r="S6">
+        <v>929</v>
+      </c>
+      <c r="T6">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>-15</v>
+      </c>
+      <c r="C7">
+        <v>-15</v>
+      </c>
+      <c r="D7">
+        <v>-3</v>
+      </c>
+      <c r="E7">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>292</v>
+      </c>
+      <c r="G7">
+        <v>517</v>
+      </c>
+      <c r="H7">
+        <v>1124</v>
+      </c>
+      <c r="I7">
+        <v>2691</v>
+      </c>
+      <c r="J7">
+        <v>5392</v>
+      </c>
+      <c r="K7">
+        <v>6636</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7">
+        <v>114</v>
+      </c>
+      <c r="O7">
+        <v>139</v>
+      </c>
+      <c r="P7">
+        <v>151</v>
+      </c>
+      <c r="Q7">
+        <v>206</v>
+      </c>
+      <c r="R7">
+        <v>457</v>
+      </c>
+      <c r="S7">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>-35</v>
+      </c>
+      <c r="C8">
+        <v>-31</v>
+      </c>
+      <c r="D8">
+        <v>-27</v>
+      </c>
+      <c r="E8">
+        <v>57</v>
+      </c>
+      <c r="F8">
+        <v>323</v>
+      </c>
+      <c r="G8">
+        <v>764</v>
+      </c>
+      <c r="H8">
+        <v>1388</v>
+      </c>
+      <c r="I8">
+        <v>2642</v>
+      </c>
+      <c r="J8">
+        <v>5231</v>
+      </c>
+      <c r="K8">
+        <v>7420</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>-249</v>
+      </c>
+      <c r="C12">
+        <v>-346</v>
+      </c>
+      <c r="D12">
+        <v>-332</v>
+      </c>
+      <c r="E12">
+        <v>-325</v>
+      </c>
+      <c r="F12">
+        <v>-335</v>
+      </c>
+      <c r="G12">
+        <v>-221</v>
+      </c>
+      <c r="H12">
+        <v>238</v>
+      </c>
+      <c r="I12">
+        <v>1830</v>
+      </c>
+      <c r="J12">
+        <v>4472</v>
+      </c>
+      <c r="K12">
+        <v>4342</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12">
+        <v>1428</v>
+      </c>
+      <c r="O12">
+        <v>2006</v>
+      </c>
+      <c r="P12">
+        <v>2040</v>
+      </c>
+      <c r="Q12">
+        <v>2067</v>
+      </c>
+      <c r="R12">
+        <v>1922</v>
+      </c>
+      <c r="S12">
+        <v>1852</v>
+      </c>
+      <c r="T12">
+        <v>2164</v>
+      </c>
+      <c r="U12">
+        <v>3291</v>
+      </c>
+      <c r="V12">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <v>-7</v>
+      </c>
+      <c r="F13">
+        <v>-161</v>
+      </c>
+      <c r="G13">
+        <v>-182</v>
+      </c>
+      <c r="H13">
+        <v>352</v>
+      </c>
+      <c r="I13">
+        <v>2162</v>
+      </c>
+      <c r="J13">
+        <v>4795</v>
+      </c>
+      <c r="K13">
+        <v>4701</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>-142</v>
+      </c>
+      <c r="P13">
+        <v>-109</v>
+      </c>
+      <c r="Q13">
+        <v>-162</v>
+      </c>
+      <c r="R13">
+        <v>-287</v>
+      </c>
+      <c r="S13">
+        <v>-266</v>
+      </c>
+      <c r="T13">
+        <v>-11</v>
+      </c>
+      <c r="U13">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>106</v>
+      </c>
+      <c r="C14">
+        <v>104</v>
+      </c>
+      <c r="D14">
+        <v>90</v>
+      </c>
+      <c r="E14">
+        <v>-16</v>
+      </c>
+      <c r="F14">
+        <v>-162</v>
+      </c>
+      <c r="G14">
+        <v>-126</v>
+      </c>
+      <c r="H14">
+        <v>377</v>
+      </c>
+      <c r="I14">
+        <v>2336</v>
+      </c>
+      <c r="J14">
+        <v>5442</v>
+      </c>
+      <c r="K14">
+        <v>5191</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14">
+        <v>-239</v>
+      </c>
+      <c r="O14">
+        <v>-340</v>
+      </c>
+      <c r="P14">
+        <v>-352</v>
+      </c>
+      <c r="Q14">
+        <v>-445</v>
+      </c>
+      <c r="R14">
+        <v>-575</v>
+      </c>
+      <c r="S14">
+        <v>-622</v>
+      </c>
+      <c r="T14">
+        <v>-326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>-77</v>
+      </c>
+      <c r="G15">
+        <v>-95</v>
+      </c>
+      <c r="H15">
+        <v>272</v>
+      </c>
+      <c r="I15">
+        <v>2024</v>
+      </c>
+      <c r="J15">
+        <v>6006</v>
+      </c>
+      <c r="K15">
+        <v>7673</v>
+      </c>
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <v>84</v>
+      </c>
+      <c r="O15">
+        <v>67</v>
+      </c>
+      <c r="P15">
+        <v>61</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>8</v>
+      </c>
+      <c r="S15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>79</v>
+      </c>
+      <c r="F16">
+        <v>200</v>
+      </c>
+      <c r="G16">
+        <v>248</v>
+      </c>
+      <c r="H16">
+        <v>451</v>
+      </c>
+      <c r="I16">
+        <v>1833</v>
+      </c>
+      <c r="J16">
+        <v>5556</v>
+      </c>
+      <c r="K16">
+        <v>8883</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <v>113</v>
+      </c>
+      <c r="O16">
+        <v>110</v>
+      </c>
+      <c r="P16">
+        <v>102</v>
+      </c>
+      <c r="Q16">
+        <v>127</v>
+      </c>
+      <c r="R16">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <v>140</v>
+      </c>
+      <c r="F17">
+        <v>399</v>
+      </c>
+      <c r="G17">
+        <v>888</v>
+      </c>
+      <c r="H17">
+        <v>1351</v>
+      </c>
+      <c r="I17">
+        <v>2212</v>
+      </c>
+      <c r="J17">
+        <v>5229</v>
+      </c>
+      <c r="K17">
+        <v>9007</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F20" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G20" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H20" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I20" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J20" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K20" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M20" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N20" t="s">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O20" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="P20" t="s">
         <v>3</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q20" t="s">
         <v>4</v>
       </c>
-      <c r="S2" t="s">
+      <c r="R20" t="s">
         <v>5</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S20" t="s">
         <v>6</v>
       </c>
-      <c r="U2" t="s">
+      <c r="T20" t="s">
         <v>7</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U20" t="s">
         <v>8</v>
       </c>
-      <c r="W2" t="s">
+      <c r="V20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>1281</v>
-      </c>
-      <c r="D3">
-        <v>1456</v>
-      </c>
-      <c r="E3">
-        <v>1547</v>
-      </c>
-      <c r="F3">
-        <v>1713</v>
-      </c>
-      <c r="G3">
-        <v>2151</v>
-      </c>
-      <c r="H3">
-        <v>2948</v>
-      </c>
-      <c r="I3">
-        <v>4422</v>
-      </c>
-      <c r="J3">
-        <v>7426</v>
-      </c>
-      <c r="K3">
-        <v>10401</v>
-      </c>
-      <c r="L3">
-        <v>8964</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="B21">
+        <v>-818</v>
+      </c>
+      <c r="C21">
+        <v>-994</v>
+      </c>
+      <c r="D21">
+        <v>-1021</v>
+      </c>
+      <c r="E21">
+        <v>-1089</v>
+      </c>
+      <c r="F21">
+        <v>-1296</v>
+      </c>
+      <c r="G21">
+        <v>-1541</v>
+      </c>
+      <c r="H21">
+        <v>-1746</v>
+      </c>
+      <c r="I21">
+        <v>-1508</v>
+      </c>
+      <c r="J21">
+        <v>-200</v>
+      </c>
+      <c r="K21">
+        <v>321</v>
+      </c>
+      <c r="M21" t="s">
         <v>22</v>
       </c>
-      <c r="O3">
-        <v>4183</v>
-      </c>
-      <c r="P3">
-        <v>5352</v>
-      </c>
-      <c r="Q3">
-        <v>5488</v>
-      </c>
-      <c r="R3">
-        <v>5800</v>
-      </c>
-      <c r="S3">
-        <v>5976</v>
-      </c>
-      <c r="T3">
-        <v>6416</v>
-      </c>
-      <c r="U3">
-        <v>7689</v>
-      </c>
-      <c r="V3">
-        <v>10156</v>
-      </c>
-      <c r="W3">
-        <v>13999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="N21">
+        <v>-389</v>
+      </c>
+      <c r="O21">
+        <v>-311</v>
+      </c>
+      <c r="P21">
+        <v>-337</v>
+      </c>
+      <c r="Q21">
+        <v>-448</v>
+      </c>
+      <c r="R21">
+        <v>-674</v>
+      </c>
+      <c r="S21">
+        <v>-945</v>
+      </c>
+      <c r="T21">
+        <v>-1211</v>
+      </c>
+      <c r="U21">
+        <v>-1202</v>
+      </c>
+      <c r="V21">
+        <v>-295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>690</v>
-      </c>
-      <c r="D4">
-        <v>780</v>
-      </c>
-      <c r="E4">
-        <v>831</v>
-      </c>
-      <c r="F4">
-        <v>858</v>
-      </c>
-      <c r="G4">
-        <v>1050</v>
-      </c>
-      <c r="H4">
-        <v>1624</v>
-      </c>
-      <c r="I4">
-        <v>3091</v>
-      </c>
-      <c r="J4">
-        <v>6171</v>
-      </c>
-      <c r="K4">
-        <v>9704</v>
-      </c>
-      <c r="L4">
-        <v>9303</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="B22">
+        <v>-223</v>
+      </c>
+      <c r="C22">
+        <v>-285</v>
+      </c>
+      <c r="D22">
+        <v>-315</v>
+      </c>
+      <c r="E22">
+        <v>-391</v>
+      </c>
+      <c r="F22">
+        <v>-633</v>
+      </c>
+      <c r="G22">
+        <v>-916</v>
+      </c>
+      <c r="H22">
+        <v>-1047</v>
+      </c>
+      <c r="I22">
+        <v>-626</v>
+      </c>
+      <c r="J22">
+        <v>418</v>
+      </c>
+      <c r="K22">
+        <v>509</v>
+      </c>
+      <c r="M22" t="s">
         <v>23</v>
       </c>
-      <c r="O4">
-        <v>3035</v>
-      </c>
-      <c r="P4">
-        <v>3458</v>
-      </c>
-      <c r="Q4">
-        <v>3584</v>
-      </c>
-      <c r="R4">
-        <v>3598</v>
-      </c>
-      <c r="S4">
-        <v>3777</v>
-      </c>
-      <c r="T4">
-        <v>4284</v>
-      </c>
-      <c r="U4">
-        <v>5394</v>
-      </c>
-      <c r="V4">
-        <v>7891</v>
-      </c>
-      <c r="W4">
-        <v>14635</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="N22">
+        <v>-1334</v>
+      </c>
+      <c r="O22">
+        <v>-1668</v>
+      </c>
+      <c r="P22">
+        <v>-1691</v>
+      </c>
+      <c r="Q22">
+        <v>-1751</v>
+      </c>
+      <c r="R22">
+        <v>-1959</v>
+      </c>
+      <c r="S22">
+        <v>-2169</v>
+      </c>
+      <c r="T22">
+        <v>-2422</v>
+      </c>
+      <c r="U22">
+        <v>-2441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>203</v>
-      </c>
-      <c r="D5">
-        <v>261</v>
-      </c>
-      <c r="E5">
-        <v>290</v>
-      </c>
-      <c r="F5">
-        <v>320</v>
-      </c>
-      <c r="G5">
-        <v>545</v>
-      </c>
-      <c r="H5">
-        <v>1189</v>
-      </c>
-      <c r="I5">
-        <v>2811</v>
-      </c>
-      <c r="J5">
-        <v>6087</v>
-      </c>
-      <c r="K5">
-        <v>9918</v>
-      </c>
-      <c r="L5">
-        <v>9153</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>-10</v>
+      </c>
+      <c r="D23">
+        <v>-37</v>
+      </c>
+      <c r="E23">
+        <v>-156</v>
+      </c>
+      <c r="F23">
+        <v>-403</v>
+      </c>
+      <c r="G23">
+        <v>-660</v>
+      </c>
+      <c r="H23">
+        <v>-891</v>
+      </c>
+      <c r="I23">
+        <v>-410</v>
+      </c>
+      <c r="J23">
+        <v>978</v>
+      </c>
+      <c r="K23">
+        <v>1078</v>
+      </c>
+      <c r="M23" t="s">
         <v>24</v>
       </c>
-      <c r="O5">
-        <v>1225</v>
-      </c>
-      <c r="P5">
-        <v>1353</v>
-      </c>
-      <c r="Q5">
-        <v>1385</v>
-      </c>
-      <c r="R5">
-        <v>1423</v>
-      </c>
-      <c r="S5">
-        <v>1641</v>
-      </c>
-      <c r="T5">
-        <v>2007</v>
-      </c>
-      <c r="U5">
-        <v>3154</v>
-      </c>
-      <c r="V5">
-        <v>6042</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="N23">
+        <v>-783</v>
+      </c>
+      <c r="O23">
+        <v>-942</v>
+      </c>
+      <c r="P23">
+        <v>-968</v>
+      </c>
+      <c r="Q23">
+        <v>-1079</v>
+      </c>
+      <c r="R23">
+        <v>-1306</v>
+      </c>
+      <c r="S23">
+        <v>-1521</v>
+      </c>
+      <c r="T23">
+        <v>-1747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>-46</v>
-      </c>
-      <c r="D6">
-        <v>-40</v>
-      </c>
-      <c r="E6">
-        <v>-22</v>
-      </c>
-      <c r="F6">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>287</v>
-      </c>
-      <c r="H6">
-        <v>777</v>
-      </c>
-      <c r="I6">
-        <v>2191</v>
-      </c>
-      <c r="J6">
-        <v>5691</v>
-      </c>
-      <c r="K6">
-        <v>10669</v>
-      </c>
-      <c r="L6">
-        <v>11807</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="B24">
+        <v>62</v>
+      </c>
+      <c r="C24">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <v>-11</v>
+      </c>
+      <c r="F24">
+        <v>-206</v>
+      </c>
+      <c r="G24">
+        <v>-448</v>
+      </c>
+      <c r="H24">
+        <v>-724</v>
+      </c>
+      <c r="I24">
+        <v>-553</v>
+      </c>
+      <c r="J24">
+        <v>1190</v>
+      </c>
+      <c r="K24">
+        <v>2358</v>
+      </c>
+      <c r="M24" t="s">
         <v>16</v>
       </c>
-      <c r="O6">
-        <v>690</v>
-      </c>
-      <c r="P6">
-        <v>771</v>
-      </c>
-      <c r="Q6">
-        <v>827</v>
-      </c>
-      <c r="R6">
-        <v>888</v>
-      </c>
-      <c r="S6">
-        <v>1193</v>
-      </c>
-      <c r="T6">
-        <v>1859</v>
-      </c>
-      <c r="U6">
-        <v>2953</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="N24">
+        <v>-223</v>
+      </c>
+      <c r="O24">
+        <v>-277</v>
+      </c>
+      <c r="P24">
+        <v>-308</v>
+      </c>
+      <c r="Q24">
+        <v>-386</v>
+      </c>
+      <c r="R24">
+        <v>-528</v>
+      </c>
+      <c r="S24">
+        <v>-534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
-        <v>-31</v>
-      </c>
-      <c r="D7">
-        <v>-29</v>
-      </c>
-      <c r="E7">
-        <v>-6</v>
-      </c>
-      <c r="F7">
-        <v>137</v>
-      </c>
-      <c r="G7">
-        <v>583</v>
-      </c>
-      <c r="H7">
-        <v>1033</v>
-      </c>
-      <c r="I7">
-        <v>2247</v>
-      </c>
-      <c r="J7">
-        <v>5382</v>
-      </c>
-      <c r="K7">
-        <v>10784</v>
-      </c>
-      <c r="L7">
-        <v>13272</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>-65</v>
+      </c>
+      <c r="G25">
+        <v>-223</v>
+      </c>
+      <c r="H25">
+        <v>-576</v>
+      </c>
+      <c r="I25">
+        <v>-616</v>
+      </c>
+      <c r="J25">
+        <v>675</v>
+      </c>
+      <c r="K25">
+        <v>2894</v>
+      </c>
+      <c r="M25" t="s">
         <v>25</v>
       </c>
-      <c r="O7">
-        <v>228</v>
-      </c>
-      <c r="P7">
-        <v>278</v>
-      </c>
-      <c r="Q7">
-        <v>301</v>
-      </c>
-      <c r="R7">
-        <v>411</v>
-      </c>
-      <c r="S7">
-        <v>914</v>
-      </c>
-      <c r="T7">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="N25">
+        <v>13</v>
+      </c>
+      <c r="O25">
+        <v>-12</v>
+      </c>
+      <c r="P25">
+        <v>-30</v>
+      </c>
+      <c r="Q25">
+        <v>-55</v>
+      </c>
+      <c r="R25">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="C8">
-        <v>-70</v>
-      </c>
-      <c r="D8">
-        <v>-61</v>
-      </c>
-      <c r="E8">
-        <v>-55</v>
-      </c>
-      <c r="F8">
-        <v>115</v>
-      </c>
-      <c r="G8">
-        <v>646</v>
-      </c>
-      <c r="H8">
-        <v>1529</v>
-      </c>
-      <c r="I8">
-        <v>2776</v>
-      </c>
-      <c r="J8">
-        <v>5284</v>
-      </c>
-      <c r="K8">
-        <v>10462</v>
-      </c>
-      <c r="L8">
-        <v>14840</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>3</v>
-      </c>
-      <c r="R11" t="s">
-        <v>4</v>
-      </c>
-      <c r="S11" t="s">
-        <v>5</v>
-      </c>
-      <c r="T11" t="s">
-        <v>6</v>
-      </c>
-      <c r="U11" t="s">
-        <v>7</v>
-      </c>
-      <c r="V11" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>-498</v>
-      </c>
-      <c r="D12">
-        <v>-693</v>
-      </c>
-      <c r="E12">
-        <v>-665</v>
-      </c>
-      <c r="F12">
-        <v>-651</v>
-      </c>
-      <c r="G12">
-        <v>-671</v>
-      </c>
-      <c r="H12">
-        <v>-442</v>
-      </c>
-      <c r="I12">
-        <v>476</v>
-      </c>
-      <c r="J12">
-        <v>3659</v>
-      </c>
-      <c r="K12">
-        <v>8944</v>
-      </c>
-      <c r="L12">
-        <v>8684</v>
-      </c>
-      <c r="N12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12">
-        <v>2855</v>
-      </c>
-      <c r="P12">
-        <v>4012</v>
-      </c>
-      <c r="Q12">
-        <v>4080</v>
-      </c>
-      <c r="R12">
-        <v>4133</v>
-      </c>
-      <c r="S12">
-        <v>3844</v>
-      </c>
-      <c r="T12">
-        <v>3705</v>
-      </c>
-      <c r="U12">
-        <v>4329</v>
-      </c>
-      <c r="V12">
-        <v>6582</v>
-      </c>
-      <c r="W12">
-        <v>11870</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>168</v>
-      </c>
-      <c r="D13">
-        <v>126</v>
-      </c>
-      <c r="E13">
-        <v>111</v>
-      </c>
-      <c r="F13">
-        <v>-15</v>
-      </c>
-      <c r="G13">
-        <v>-321</v>
-      </c>
-      <c r="H13">
-        <v>-365</v>
-      </c>
-      <c r="I13">
-        <v>705</v>
-      </c>
-      <c r="J13">
-        <v>4324</v>
-      </c>
-      <c r="K13">
-        <v>9589</v>
-      </c>
-      <c r="L13">
-        <v>9402</v>
-      </c>
-      <c r="N13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13">
-        <v>7</v>
-      </c>
-      <c r="P13">
-        <v>-284</v>
-      </c>
-      <c r="Q13">
-        <v>-218</v>
-      </c>
-      <c r="R13">
-        <v>-324</v>
-      </c>
-      <c r="S13">
-        <v>-575</v>
-      </c>
-      <c r="T13">
-        <v>-533</v>
-      </c>
-      <c r="U13">
-        <v>-23</v>
-      </c>
-      <c r="V13">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>212</v>
-      </c>
-      <c r="D14">
-        <v>209</v>
-      </c>
-      <c r="E14">
-        <v>181</v>
-      </c>
-      <c r="F14">
-        <v>-31</v>
-      </c>
-      <c r="G14">
-        <v>-323</v>
-      </c>
-      <c r="H14">
-        <v>-252</v>
-      </c>
-      <c r="I14">
-        <v>754</v>
-      </c>
-      <c r="J14">
-        <v>4673</v>
-      </c>
-      <c r="K14">
-        <v>10883</v>
-      </c>
-      <c r="L14">
-        <v>10383</v>
-      </c>
-      <c r="N14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14">
-        <v>-478</v>
-      </c>
-      <c r="P14">
-        <v>-680</v>
-      </c>
-      <c r="Q14">
-        <v>-704</v>
-      </c>
-      <c r="R14">
-        <v>-891</v>
-      </c>
-      <c r="S14">
-        <v>-1149</v>
-      </c>
-      <c r="T14">
-        <v>-1245</v>
-      </c>
-      <c r="U14">
-        <v>-651</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>81</v>
-      </c>
-      <c r="D15">
-        <v>63</v>
-      </c>
-      <c r="E15">
-        <v>52</v>
-      </c>
-      <c r="F15">
-        <v>16</v>
-      </c>
-      <c r="G15">
-        <v>-154</v>
-      </c>
-      <c r="H15">
-        <v>-190</v>
-      </c>
-      <c r="I15">
-        <v>544</v>
-      </c>
-      <c r="J15">
-        <v>4048</v>
-      </c>
-      <c r="K15">
-        <v>12013</v>
-      </c>
-      <c r="L15">
-        <v>15346</v>
-      </c>
-      <c r="N15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15">
-        <v>168</v>
-      </c>
-      <c r="P15">
-        <v>133</v>
-      </c>
-      <c r="Q15">
-        <v>121</v>
-      </c>
-      <c r="R15">
-        <v>21</v>
-      </c>
-      <c r="S15">
-        <v>15</v>
-      </c>
-      <c r="T15">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>70</v>
-      </c>
-      <c r="D16">
-        <v>64</v>
-      </c>
-      <c r="E16">
-        <v>77</v>
-      </c>
-      <c r="F16">
-        <v>158</v>
-      </c>
-      <c r="G16">
-        <v>400</v>
-      </c>
-      <c r="H16">
-        <v>497</v>
-      </c>
-      <c r="I16">
-        <v>901</v>
-      </c>
-      <c r="J16">
-        <v>3666</v>
-      </c>
-      <c r="K16">
-        <v>11111</v>
-      </c>
-      <c r="L16">
-        <v>17766</v>
-      </c>
-      <c r="N16" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16">
-        <v>226</v>
-      </c>
-      <c r="P16">
-        <v>220</v>
-      </c>
-      <c r="Q16">
-        <v>203</v>
-      </c>
-      <c r="R16">
-        <v>254</v>
-      </c>
-      <c r="S16">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>98</v>
-      </c>
-      <c r="D17">
-        <v>109</v>
-      </c>
-      <c r="E17">
-        <v>116</v>
-      </c>
-      <c r="F17">
-        <v>280</v>
-      </c>
-      <c r="G17">
-        <v>798</v>
-      </c>
-      <c r="H17">
-        <v>1775</v>
-      </c>
-      <c r="I17">
-        <v>2703</v>
-      </c>
-      <c r="J17">
-        <v>4424</v>
-      </c>
-      <c r="K17">
-        <v>10458</v>
-      </c>
-      <c r="L17">
-        <v>18014</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" t="s">
-        <v>1</v>
-      </c>
-      <c r="P20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" t="s">
-        <v>6</v>
-      </c>
-      <c r="U20" t="s">
-        <v>7</v>
-      </c>
-      <c r="V20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>-1637</v>
-      </c>
-      <c r="D21">
-        <v>-1989</v>
-      </c>
-      <c r="E21">
-        <v>-2042</v>
-      </c>
-      <c r="F21">
-        <v>-2177</v>
-      </c>
-      <c r="G21">
-        <v>-2591</v>
-      </c>
-      <c r="H21">
-        <v>-3081</v>
-      </c>
-      <c r="I21">
-        <v>-3492</v>
-      </c>
-      <c r="J21">
-        <v>-3015</v>
-      </c>
-      <c r="K21">
-        <v>-401</v>
-      </c>
-      <c r="L21">
-        <v>642</v>
-      </c>
-      <c r="N21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21">
-        <v>-779</v>
-      </c>
-      <c r="P21">
-        <v>-622</v>
-      </c>
-      <c r="Q21">
-        <v>-674</v>
-      </c>
-      <c r="R21">
-        <v>-897</v>
-      </c>
-      <c r="S21">
-        <v>-1348</v>
-      </c>
-      <c r="T21">
-        <v>-1889</v>
-      </c>
-      <c r="U21">
-        <v>-2422</v>
-      </c>
-      <c r="V21">
-        <v>-2404</v>
-      </c>
-      <c r="W21">
-        <v>-591</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>-446</v>
-      </c>
-      <c r="D22">
-        <v>-569</v>
-      </c>
-      <c r="E22">
-        <v>-630</v>
-      </c>
-      <c r="F22">
-        <v>-782</v>
-      </c>
-      <c r="G22">
-        <v>-1266</v>
-      </c>
-      <c r="H22">
-        <v>-1832</v>
-      </c>
-      <c r="I22">
-        <v>-2093</v>
-      </c>
-      <c r="J22">
-        <v>-1252</v>
-      </c>
-      <c r="K22">
-        <v>836</v>
-      </c>
-      <c r="L22">
-        <v>1017</v>
-      </c>
-      <c r="N22" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22">
-        <v>-2668</v>
-      </c>
-      <c r="P22">
-        <v>-3336</v>
-      </c>
-      <c r="Q22">
-        <v>-3382</v>
-      </c>
-      <c r="R22">
-        <v>-3503</v>
-      </c>
-      <c r="S22">
-        <v>-3918</v>
-      </c>
-      <c r="T22">
-        <v>-4338</v>
-      </c>
-      <c r="U22">
-        <v>-4843</v>
-      </c>
-      <c r="V22">
-        <v>-4883</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>36</v>
-      </c>
-      <c r="D23">
-        <v>-20</v>
-      </c>
-      <c r="E23">
-        <v>-73</v>
-      </c>
-      <c r="F23">
-        <v>-311</v>
-      </c>
-      <c r="G23">
-        <v>-807</v>
-      </c>
-      <c r="H23">
-        <v>-1320</v>
-      </c>
-      <c r="I23">
-        <v>-1783</v>
-      </c>
-      <c r="J23">
-        <v>-821</v>
-      </c>
-      <c r="K23">
-        <v>1956</v>
-      </c>
-      <c r="L23">
-        <v>2156</v>
-      </c>
-      <c r="N23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23">
-        <v>-1566</v>
-      </c>
-      <c r="P23">
-        <v>-1884</v>
-      </c>
-      <c r="Q23">
-        <v>-1937</v>
-      </c>
-      <c r="R23">
-        <v>-2157</v>
-      </c>
-      <c r="S23">
-        <v>-2612</v>
-      </c>
-      <c r="T23">
-        <v>-3042</v>
-      </c>
-      <c r="U23">
-        <v>-3495</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24">
-        <v>125</v>
-      </c>
-      <c r="D24">
-        <v>102</v>
-      </c>
-      <c r="E24">
-        <v>75</v>
-      </c>
-      <c r="F24">
-        <v>-21</v>
-      </c>
-      <c r="G24">
-        <v>-412</v>
-      </c>
-      <c r="H24">
-        <v>-896</v>
-      </c>
-      <c r="I24">
-        <v>-1448</v>
-      </c>
-      <c r="J24">
-        <v>-1106</v>
-      </c>
-      <c r="K24">
-        <v>2380</v>
-      </c>
-      <c r="L24">
-        <v>4717</v>
-      </c>
-      <c r="N24" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24">
-        <v>-446</v>
-      </c>
-      <c r="P24">
-        <v>-553</v>
-      </c>
-      <c r="Q24">
-        <v>-617</v>
-      </c>
-      <c r="R24">
-        <v>-771</v>
-      </c>
-      <c r="S24">
-        <v>-1055</v>
-      </c>
-      <c r="T24">
-        <v>-1069</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>99</v>
-      </c>
-      <c r="D25">
-        <v>92</v>
-      </c>
-      <c r="E25">
+      <c r="B26">
+        <v>82</v>
+      </c>
+      <c r="C26">
         <v>84</v>
       </c>
-      <c r="F25">
-        <v>35</v>
-      </c>
-      <c r="G25">
-        <v>-130</v>
-      </c>
-      <c r="H25">
-        <v>-445</v>
-      </c>
-      <c r="I25">
-        <v>-1151</v>
-      </c>
-      <c r="J25">
-        <v>-1233</v>
-      </c>
-      <c r="K25">
-        <v>1350</v>
-      </c>
-      <c r="L25">
-        <v>5787</v>
-      </c>
-      <c r="N25" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25">
-        <v>27</v>
-      </c>
-      <c r="P25">
-        <v>-24</v>
-      </c>
-      <c r="Q25">
-        <v>-61</v>
-      </c>
-      <c r="R25">
-        <v>-110</v>
-      </c>
-      <c r="S25">
-        <v>-155</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26">
-        <v>165</v>
-      </c>
       <c r="D26">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="E26">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="F26">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="G26">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="H26">
-        <v>380</v>
+        <v>86</v>
       </c>
       <c r="I26">
-        <v>173</v>
+        <v>-195</v>
       </c>
       <c r="J26">
-        <v>-390</v>
+        <v>482</v>
       </c>
       <c r="K26">
-        <v>965</v>
-      </c>
-      <c r="L26">
-        <v>4603</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
+        <v>2301</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="3" t="s">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1726,7 +1719,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L7"/>
+      <selection activeCell="C2" sqref="C2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1774,34 +1767,34 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1281</v>
+        <v>641</v>
       </c>
       <c r="D2">
-        <v>1456</v>
+        <v>728</v>
       </c>
       <c r="E2">
-        <v>1547</v>
+        <v>774</v>
       </c>
       <c r="F2">
-        <v>1713</v>
+        <v>857</v>
       </c>
       <c r="G2">
-        <v>2151</v>
+        <v>1075</v>
       </c>
       <c r="H2">
-        <v>2948</v>
+        <v>1474</v>
       </c>
       <c r="I2">
-        <v>4422</v>
+        <v>2211</v>
       </c>
       <c r="J2">
-        <v>7426</v>
+        <v>3713</v>
       </c>
       <c r="K2">
-        <v>10401</v>
+        <v>5200</v>
       </c>
       <c r="L2">
-        <v>8964</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1812,34 +1805,34 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>690</v>
+        <v>345</v>
       </c>
       <c r="D3">
-        <v>780</v>
+        <v>390</v>
       </c>
       <c r="E3">
-        <v>831</v>
+        <v>416</v>
       </c>
       <c r="F3">
-        <v>858</v>
+        <v>429</v>
       </c>
       <c r="G3">
-        <v>1050</v>
+        <v>525</v>
       </c>
       <c r="H3">
-        <v>1624</v>
+        <v>812</v>
       </c>
       <c r="I3">
-        <v>3091</v>
+        <v>1545</v>
       </c>
       <c r="J3">
-        <v>6171</v>
+        <v>3086</v>
       </c>
       <c r="K3">
-        <v>9704</v>
+        <v>4852</v>
       </c>
       <c r="L3">
-        <v>9303</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1850,34 +1843,34 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="D4">
-        <v>261</v>
+        <v>131</v>
       </c>
       <c r="E4">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="F4">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="G4">
-        <v>545</v>
+        <v>273</v>
       </c>
       <c r="H4">
-        <v>1189</v>
+        <v>594</v>
       </c>
       <c r="I4">
-        <v>2811</v>
+        <v>1406</v>
       </c>
       <c r="J4">
-        <v>6087</v>
+        <v>3043</v>
       </c>
       <c r="K4">
-        <v>9918</v>
+        <v>4959</v>
       </c>
       <c r="L4">
-        <v>9153</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1888,34 +1881,34 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>-46</v>
+        <v>-23</v>
       </c>
       <c r="D5">
-        <v>-40</v>
+        <v>-20</v>
       </c>
       <c r="E5">
-        <v>-22</v>
+        <v>-11</v>
       </c>
       <c r="F5">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="H5">
-        <v>777</v>
+        <v>389</v>
       </c>
       <c r="I5">
-        <v>2191</v>
+        <v>1096</v>
       </c>
       <c r="J5">
-        <v>5691</v>
+        <v>2846</v>
       </c>
       <c r="K5">
-        <v>10669</v>
+        <v>5335</v>
       </c>
       <c r="L5">
-        <v>11807</v>
+        <v>5903</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1926,34 +1919,34 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>-31</v>
+        <v>-15</v>
       </c>
       <c r="D6">
-        <v>-29</v>
+        <v>-15</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F6">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="G6">
-        <v>583</v>
+        <v>292</v>
       </c>
       <c r="H6">
-        <v>1033</v>
+        <v>517</v>
       </c>
       <c r="I6">
-        <v>2247</v>
+        <v>1124</v>
       </c>
       <c r="J6">
-        <v>5382</v>
+        <v>2691</v>
       </c>
       <c r="K6">
-        <v>10784</v>
+        <v>5392</v>
       </c>
       <c r="L6">
-        <v>13272</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1964,34 +1957,34 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>-70</v>
+        <v>-35</v>
       </c>
       <c r="D7">
-        <v>-61</v>
+        <v>-31</v>
       </c>
       <c r="E7">
-        <v>-55</v>
+        <v>-27</v>
       </c>
       <c r="F7">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G7">
-        <v>646</v>
+        <v>323</v>
       </c>
       <c r="H7">
-        <v>1529</v>
+        <v>764</v>
       </c>
       <c r="I7">
-        <v>2776</v>
+        <v>1388</v>
       </c>
       <c r="J7">
-        <v>5284</v>
+        <v>2642</v>
       </c>
       <c r="K7">
-        <v>10462</v>
+        <v>5231</v>
       </c>
       <c r="L7">
-        <v>14840</v>
+        <v>7420</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +1997,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L7"/>
+      <selection activeCell="C2" sqref="C2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2052,34 +2045,34 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>-498</v>
+        <v>-249</v>
       </c>
       <c r="D2">
-        <v>-693</v>
+        <v>-346</v>
       </c>
       <c r="E2">
-        <v>-665</v>
+        <v>-332</v>
       </c>
       <c r="F2">
-        <v>-651</v>
+        <v>-325</v>
       </c>
       <c r="G2">
-        <v>-671</v>
+        <v>-335</v>
       </c>
       <c r="H2">
-        <v>-442</v>
+        <v>-221</v>
       </c>
       <c r="I2">
-        <v>476</v>
+        <v>238</v>
       </c>
       <c r="J2">
-        <v>3659</v>
+        <v>1830</v>
       </c>
       <c r="K2">
-        <v>8944</v>
+        <v>4472</v>
       </c>
       <c r="L2">
-        <v>8684</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2090,34 +2083,34 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="F3">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="G3">
-        <v>-321</v>
+        <v>-161</v>
       </c>
       <c r="H3">
-        <v>-365</v>
+        <v>-182</v>
       </c>
       <c r="I3">
-        <v>705</v>
+        <v>352</v>
       </c>
       <c r="J3">
-        <v>4324</v>
+        <v>2162</v>
       </c>
       <c r="K3">
-        <v>9589</v>
+        <v>4795</v>
       </c>
       <c r="L3">
-        <v>9402</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2128,34 +2121,34 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="D4">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="F4">
-        <v>-31</v>
+        <v>-16</v>
       </c>
       <c r="G4">
-        <v>-323</v>
+        <v>-162</v>
       </c>
       <c r="H4">
-        <v>-252</v>
+        <v>-126</v>
       </c>
       <c r="I4">
-        <v>754</v>
+        <v>377</v>
       </c>
       <c r="J4">
-        <v>4673</v>
+        <v>2336</v>
       </c>
       <c r="K4">
-        <v>10883</v>
+        <v>5442</v>
       </c>
       <c r="L4">
-        <v>10383</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2166,34 +2159,34 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>-154</v>
+        <v>-77</v>
       </c>
       <c r="H5">
-        <v>-190</v>
+        <v>-95</v>
       </c>
       <c r="I5">
-        <v>544</v>
+        <v>272</v>
       </c>
       <c r="J5">
-        <v>4048</v>
+        <v>2024</v>
       </c>
       <c r="K5">
-        <v>12013</v>
+        <v>6006</v>
       </c>
       <c r="L5">
-        <v>15346</v>
+        <v>7673</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2204,34 +2197,34 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="F6">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="G6">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H6">
-        <v>497</v>
+        <v>248</v>
       </c>
       <c r="I6">
-        <v>901</v>
+        <v>451</v>
       </c>
       <c r="J6">
-        <v>3666</v>
+        <v>1833</v>
       </c>
       <c r="K6">
-        <v>11111</v>
+        <v>5556</v>
       </c>
       <c r="L6">
-        <v>17766</v>
+        <v>8883</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2242,34 +2235,34 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="F7">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="G7">
-        <v>798</v>
+        <v>399</v>
       </c>
       <c r="H7">
-        <v>1775</v>
+        <v>888</v>
       </c>
       <c r="I7">
-        <v>2703</v>
+        <v>1351</v>
       </c>
       <c r="J7">
-        <v>4424</v>
+        <v>2212</v>
       </c>
       <c r="K7">
-        <v>10458</v>
+        <v>5229</v>
       </c>
       <c r="L7">
-        <v>18014</v>
+        <v>9007</v>
       </c>
     </row>
   </sheetData>
@@ -2282,7 +2275,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L7"/>
+      <selection activeCell="C2" sqref="C2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2330,34 +2323,34 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>-1637</v>
+        <v>-818</v>
       </c>
       <c r="D2">
-        <v>-1989</v>
+        <v>-994</v>
       </c>
       <c r="E2">
-        <v>-2042</v>
+        <v>-1021</v>
       </c>
       <c r="F2">
-        <v>-2177</v>
+        <v>-1089</v>
       </c>
       <c r="G2">
-        <v>-2591</v>
+        <v>-1296</v>
       </c>
       <c r="H2">
-        <v>-3081</v>
+        <v>-1541</v>
       </c>
       <c r="I2">
-        <v>-3492</v>
+        <v>-1746</v>
       </c>
       <c r="J2">
-        <v>-3015</v>
+        <v>-1508</v>
       </c>
       <c r="K2">
-        <v>-401</v>
+        <v>-200</v>
       </c>
       <c r="L2">
-        <v>642</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2368,34 +2361,34 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>-446</v>
+        <v>-223</v>
       </c>
       <c r="D3">
-        <v>-569</v>
+        <v>-285</v>
       </c>
       <c r="E3">
-        <v>-630</v>
+        <v>-315</v>
       </c>
       <c r="F3">
-        <v>-782</v>
+        <v>-391</v>
       </c>
       <c r="G3">
-        <v>-1266</v>
+        <v>-633</v>
       </c>
       <c r="H3">
-        <v>-1832</v>
+        <v>-916</v>
       </c>
       <c r="I3">
-        <v>-2093</v>
+        <v>-1047</v>
       </c>
       <c r="J3">
-        <v>-1252</v>
+        <v>-626</v>
       </c>
       <c r="K3">
-        <v>836</v>
+        <v>418</v>
       </c>
       <c r="L3">
-        <v>1017</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2406,34 +2399,34 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="E4">
-        <v>-73</v>
+        <v>-37</v>
       </c>
       <c r="F4">
-        <v>-311</v>
+        <v>-156</v>
       </c>
       <c r="G4">
-        <v>-807</v>
+        <v>-403</v>
       </c>
       <c r="H4">
-        <v>-1320</v>
+        <v>-660</v>
       </c>
       <c r="I4">
-        <v>-1783</v>
+        <v>-891</v>
       </c>
       <c r="J4">
-        <v>-821</v>
+        <v>-410</v>
       </c>
       <c r="K4">
-        <v>1956</v>
+        <v>978</v>
       </c>
       <c r="L4">
-        <v>2156</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2444,34 +2437,34 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="E5">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>-21</v>
+        <v>-11</v>
       </c>
       <c r="G5">
-        <v>-412</v>
+        <v>-206</v>
       </c>
       <c r="H5">
-        <v>-896</v>
+        <v>-448</v>
       </c>
       <c r="I5">
-        <v>-1448</v>
+        <v>-724</v>
       </c>
       <c r="J5">
-        <v>-1106</v>
+        <v>-553</v>
       </c>
       <c r="K5">
-        <v>2380</v>
+        <v>1190</v>
       </c>
       <c r="L5">
-        <v>4717</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2482,34 +2475,34 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="E6">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>-130</v>
+        <v>-65</v>
       </c>
       <c r="H6">
-        <v>-445</v>
+        <v>-223</v>
       </c>
       <c r="I6">
-        <v>-1151</v>
+        <v>-576</v>
       </c>
       <c r="J6">
-        <v>-1233</v>
+        <v>-616</v>
       </c>
       <c r="K6">
-        <v>1350</v>
+        <v>675</v>
       </c>
       <c r="L6">
-        <v>5787</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2520,34 +2513,34 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="D7">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="E7">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="F7">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="G7">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="H7">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="I7">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="J7">
-        <v>-390</v>
+        <v>-195</v>
       </c>
       <c r="K7">
-        <v>965</v>
+        <v>482</v>
       </c>
       <c r="L7">
-        <v>4603</v>
+        <v>2301</v>
       </c>
     </row>
   </sheetData>
@@ -2560,7 +2553,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L6"/>
+      <selection activeCell="C2" sqref="C2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2608,34 +2601,34 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>4183</v>
+        <v>2092</v>
       </c>
       <c r="D2">
-        <v>5352</v>
+        <v>2676</v>
       </c>
       <c r="E2">
-        <v>5488</v>
+        <v>2744</v>
       </c>
       <c r="F2">
-        <v>5800</v>
+        <v>2900</v>
       </c>
       <c r="G2">
-        <v>5976</v>
+        <v>2988</v>
       </c>
       <c r="H2">
-        <v>6416</v>
+        <v>3208</v>
       </c>
       <c r="I2">
-        <v>7689</v>
+        <v>3845</v>
       </c>
       <c r="J2">
-        <v>10156</v>
+        <v>5078</v>
       </c>
       <c r="K2">
-        <v>13999</v>
+        <v>7000</v>
       </c>
       <c r="L2">
-        <v>16201</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2646,31 +2639,31 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>3035</v>
+        <v>1518</v>
       </c>
       <c r="D3">
-        <v>3458</v>
+        <v>1729</v>
       </c>
       <c r="E3">
-        <v>3584</v>
+        <v>1792</v>
       </c>
       <c r="F3">
-        <v>3598</v>
+        <v>1799</v>
       </c>
       <c r="G3">
-        <v>3777</v>
+        <v>1889</v>
       </c>
       <c r="H3">
-        <v>4284</v>
+        <v>2142</v>
       </c>
       <c r="I3">
-        <v>5394</v>
+        <v>2697</v>
       </c>
       <c r="J3">
-        <v>7891</v>
+        <v>3946</v>
       </c>
       <c r="K3">
-        <v>14635</v>
+        <v>7318</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2681,28 +2674,28 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>1225</v>
+        <v>613</v>
       </c>
       <c r="D4">
-        <v>1353</v>
+        <v>676</v>
       </c>
       <c r="E4">
-        <v>1385</v>
+        <v>692</v>
       </c>
       <c r="F4">
-        <v>1423</v>
+        <v>712</v>
       </c>
       <c r="G4">
-        <v>1641</v>
+        <v>820</v>
       </c>
       <c r="H4">
-        <v>2007</v>
+        <v>1003</v>
       </c>
       <c r="I4">
-        <v>3154</v>
+        <v>1577</v>
       </c>
       <c r="J4">
-        <v>6042</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2713,25 +2706,25 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>690</v>
+        <v>345</v>
       </c>
       <c r="D5">
-        <v>771</v>
+        <v>385</v>
       </c>
       <c r="E5">
-        <v>827</v>
+        <v>414</v>
       </c>
       <c r="F5">
-        <v>888</v>
+        <v>444</v>
       </c>
       <c r="G5">
-        <v>1193</v>
+        <v>597</v>
       </c>
       <c r="H5">
-        <v>1859</v>
+        <v>929</v>
       </c>
       <c r="I5">
-        <v>2953</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2742,22 +2735,22 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="F6">
-        <v>411</v>
+        <v>206</v>
       </c>
       <c r="G6">
-        <v>914</v>
+        <v>457</v>
       </c>
       <c r="H6">
-        <v>1541</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2763,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L6"/>
+      <selection activeCell="C2" sqref="C2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2818,31 +2811,31 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>2855</v>
+        <v>1428</v>
       </c>
       <c r="D2">
-        <v>4012</v>
+        <v>2006</v>
       </c>
       <c r="E2">
-        <v>4080</v>
+        <v>2040</v>
       </c>
       <c r="F2">
-        <v>4133</v>
+        <v>2067</v>
       </c>
       <c r="G2">
-        <v>3844</v>
+        <v>1922</v>
       </c>
       <c r="H2">
-        <v>3705</v>
+        <v>1852</v>
       </c>
       <c r="I2">
-        <v>4329</v>
+        <v>2164</v>
       </c>
       <c r="J2">
-        <v>6582</v>
+        <v>3291</v>
       </c>
       <c r="K2">
-        <v>11870</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2853,28 +2846,28 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>-284</v>
+        <v>-142</v>
       </c>
       <c r="E3">
-        <v>-218</v>
+        <v>-109</v>
       </c>
       <c r="F3">
-        <v>-324</v>
+        <v>-162</v>
       </c>
       <c r="G3">
-        <v>-575</v>
+        <v>-287</v>
       </c>
       <c r="H3">
-        <v>-533</v>
+        <v>-266</v>
       </c>
       <c r="I3">
-        <v>-23</v>
+        <v>-11</v>
       </c>
       <c r="J3">
-        <v>2214</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2885,25 +2878,25 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>-478</v>
+        <v>-239</v>
       </c>
       <c r="D4">
-        <v>-680</v>
+        <v>-340</v>
       </c>
       <c r="E4">
-        <v>-704</v>
+        <v>-352</v>
       </c>
       <c r="F4">
-        <v>-891</v>
+        <v>-445</v>
       </c>
       <c r="G4">
-        <v>-1149</v>
+        <v>-575</v>
       </c>
       <c r="H4">
-        <v>-1245</v>
+        <v>-622</v>
       </c>
       <c r="I4">
-        <v>-651</v>
+        <v>-326</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2914,22 +2907,22 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="E5">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>611</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2940,19 +2933,19 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="D6">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="E6">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="F6">
-        <v>254</v>
+        <v>127</v>
       </c>
       <c r="G6">
-        <v>669</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2965,7 +2958,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L6"/>
+      <selection activeCell="C2" sqref="C2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3013,31 +3006,31 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>-779</v>
+        <v>-389</v>
       </c>
       <c r="D2">
-        <v>-622</v>
+        <v>-311</v>
       </c>
       <c r="E2">
+        <v>-337</v>
+      </c>
+      <c r="F2">
+        <v>-448</v>
+      </c>
+      <c r="G2">
         <v>-674</v>
       </c>
-      <c r="F2">
-        <v>-897</v>
-      </c>
-      <c r="G2">
-        <v>-1348</v>
-      </c>
       <c r="H2">
-        <v>-1889</v>
+        <v>-945</v>
       </c>
       <c r="I2">
-        <v>-2422</v>
+        <v>-1211</v>
       </c>
       <c r="J2">
-        <v>-2404</v>
+        <v>-1202</v>
       </c>
       <c r="K2">
-        <v>-591</v>
+        <v>-295</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3048,28 +3041,28 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>-2668</v>
+        <v>-1334</v>
       </c>
       <c r="D3">
-        <v>-3336</v>
+        <v>-1668</v>
       </c>
       <c r="E3">
-        <v>-3382</v>
+        <v>-1691</v>
       </c>
       <c r="F3">
-        <v>-3503</v>
+        <v>-1751</v>
       </c>
       <c r="G3">
-        <v>-3918</v>
+        <v>-1959</v>
       </c>
       <c r="H3">
-        <v>-4338</v>
+        <v>-2169</v>
       </c>
       <c r="I3">
-        <v>-4843</v>
+        <v>-2422</v>
       </c>
       <c r="J3">
-        <v>-4883</v>
+        <v>-2441</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3080,25 +3073,25 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>-1566</v>
+        <v>-783</v>
       </c>
       <c r="D4">
-        <v>-1884</v>
+        <v>-942</v>
       </c>
       <c r="E4">
-        <v>-1937</v>
+        <v>-968</v>
       </c>
       <c r="F4">
-        <v>-2157</v>
+        <v>-1079</v>
       </c>
       <c r="G4">
-        <v>-2612</v>
+        <v>-1306</v>
       </c>
       <c r="H4">
-        <v>-3042</v>
+        <v>-1521</v>
       </c>
       <c r="I4">
-        <v>-3495</v>
+        <v>-1747</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3109,22 +3102,22 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>-446</v>
+        <v>-223</v>
       </c>
       <c r="D5">
-        <v>-553</v>
+        <v>-277</v>
       </c>
       <c r="E5">
-        <v>-617</v>
+        <v>-308</v>
       </c>
       <c r="F5">
-        <v>-771</v>
+        <v>-386</v>
       </c>
       <c r="G5">
-        <v>-1055</v>
+        <v>-528</v>
       </c>
       <c r="H5">
-        <v>-1069</v>
+        <v>-534</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3135,19 +3128,19 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>-24</v>
+        <v>-12</v>
       </c>
       <c r="E6">
-        <v>-61</v>
+        <v>-30</v>
       </c>
       <c r="F6">
-        <v>-110</v>
+        <v>-55</v>
       </c>
       <c r="G6">
-        <v>-155</v>
+        <v>-77</v>
       </c>
     </row>
   </sheetData>
